--- a/ParkByeongHyeon/TopicClustering/Vehicle/packages_DBSCAN_clusters(Vehicle).xlsx
+++ b/ParkByeongHyeon/TopicClustering/Vehicle/packages_DBSCAN_clusters(Vehicle).xlsx
@@ -28,28 +28,28 @@
     <t>top_15_topics</t>
   </si>
   <si>
-    <t>['stuntrally/stuntrally', 'limiter121/esp32-obd2-emulator', 'smartdevicelink/sdl_core', 'PowerBroker2/ELMduino', 'leggedrobotics/se2_navigation', 'pratik-123/GoogleMap', 'kmalinich/node-bmw-client', 'hjptriplebee/car_detection_counting', 'jasur-2902/CarRecognition', 'tetreum/carmechanic', 'DurgNomis-drol/ha_toyota', 'filippofilip95/car-logos-dataset', 'shahshubh/CampusCar', 'jhermsmeier/node-vehicle-identification-number', 'bmellink/GPS_Tracker_Server', 'Basssiiie/OpenRCT2-RideVehicleEditor', 'matthewfortier/Digital-Dashboard', 'fochica/fochica-arduino', 'dominikwinter/mobile-scraper', 'nirbhayph/VAMRR-Vehicle-Detection', 'SumanSudhir/Vehicle-and-Its-License-Plate-detection', 'tramyardg/autoexpress', 'mvargas33/Eolian-Telemetria-Auriga', 'kami-nashi/DSMPi', 'viral32111/car-keys', 'openpilot-community/opc-web', 'duraki/jeep', 'rhelmke/cant', 'PyMyFord/prefect', 'APCVSRepo/sdl_implementation_reference', 'xXNurioXx/gta-sa-self-driving-car', 'pburggraf/LicensePlate', 'rhelmke/cant-ui', 'DhirenSc/VAMRR-Vehicle-Detection', '025PRO/VehicleYearMakeModelDB', 'camrymps/toyota-client', 'BattlefieldDuck/TF2_DrivableVehicles', 'CREESTL/CarCounter', 'fernaper/tfm-artificial-vision', 'dcrblack/Kingdomhire-2.0', 'KhalidKhaskia/FLIVA', 'swhan0329/license_plate_de-identification', 'haradama/ofxAutomobile', 'gmm96/GTA-Vice-City-CAR-INFO', 'pinglis/carphysics2d_onamap', 'jankubatt/Vehicle-Maintenance', 'javoplus/Fivem-SpawnVehicle_V1', 'azzaouiyazid/Car-Truck-Vehicle-class-.', 'electricduck/clunkerbot', 'naorbakal/Garage', 'simpleverso/contadorDeVehiculos', 'onecarpayment/KARchain', 'SebRol/car-performance', 'G0uth4m/State-Design-Pattern', 'fmatsos/monitocar', 'StingrayCZ/Airport-Ground-Support-Vehicle', 'PVineeth/minix_car_firmware', 'contributeless/car-selector', 'YouCodeSchool/DriveNow', 'hurtadosanti/BehavioralCloning', 'KhomsiAdam/DriveNow', 'pawlidim/jVinDecoder', 'evenator/CarND-Vehicle-Detection', 'yujinakayama/ipad-car-integration', 'PVineeth/minix_car_control_app', 'filipnet/car-entertainment-system']</t>
-  </si>
-  <si>
-    <t>['fr3ts0n/AndrOBD', 'Seeed-Studio/Seeed_Arduino_CAN', 'parkingwang/vehicle-keyboard-android', 'cedricp/ddt4all', 'layumi/AICIty-reID-2020', 'rnd-ash/OpenVehicleDiag', 'atiksoftware/pubg_mobile_memory_hacking_examples', 'rohanchandra30/Spectral-Trajectory-and-Behavior-Prediction', 'layumi/Vehicle_reID-Collection', 'meshula/OpenSteer', 'CaptainEven/RepNet-MDNet-VehicleReID', 'bimmerconnected/bimmer_connected', 'eric612/Vehicle-Detection', 'PushkinStudio/PsRealVehicle', 'Jakel21/vehicle-ReID-baseline', 'blockchain-IoT/Motoro', 'bismex/Awesome-vehicle-re-identification', 'jfrux/workbench', 'TridentMC/DavincisVessels', 'fjp/frenet', 'atulkunal999/pubg_mobile_memory_hacking', 'lxc86739795/human_vehicle_parsing_platform', 'thomasesmith/vw-car-net-api', 'BravoLu/open-VehicleReID', 'relish-wang/VehicleEditText', 'ManiAm/VENTOS_Public', 'Ekim-Yurtsever/DeepTL-Lane-Change-Classification', 'saildot4k/MSS54-XDFs', 'Udayraj123/VehicleInfoOCR', 'lxc86739795/vehicle_reid_by_parsing', 'MOBATSim/MOBATSim', 'LonglongaaaGo/CCML_Learning', 'Tobalation/GDCustomRaycastVehicle', 'skarapost/EVLib', 'TractorHacking/TractorHacking.github.io', 'q39JzrRa/GM-Vehicle-API', 'msp1974/homeassistant-jlrincontrol', 'MCarlomagno/CarDrivingResNet', 'osu-uwrt/riptide_setup', 'evanshortiss/obd-parser', 'JRCSTU/CO2MPAS-TA', 'adessoAG/anki-drive-java', 'ShisatoYano/JuliaAutonomy', 'emaraschio/swapi-ruby', 'prasad-kumkar/ai-driver-safety', 'rnd-ash/m2-utd-passthru', 'Mikusch/source-vehicles', 'evanshortiss/obd-parser-cli', 'ozcanovunc/Driver-Assistant', 'opencars/vin-decoder-api', 'SOLOPlugins-PocketMine/HotAirBalloon', 'SamadiPour/IranVehicleNumberPlates', 'DispatchSystems/DispatchSystem', 'dotSILENT/chandling', 'shnewto/can-we-talk', 'stephengold/jme-vehicles', 'jackm/carhack', 'Derekabc/NGSIM_DATA_PROCESSING', 'dongfang-steven-yang/vpi-crossing', 'Rbn3D/CustomCameraVPlus', 'yy0yaolinjun1/vehicle_monitoring_tensorflow', 'sunshine-tech/BienSoXe', 'arjun921/Google-Maps-Animated-Marker', 'opensensorhub/osh-addons', 'dotSILENT/chandling-svr', 'vzakharchenko/remote-ctrl-gsm', 'guannan-he/pathPlanningPaperAndCodes', 'jdinovo/CarServiceManagementSystem', 'dabo248/nedc', 'fadidevv/react-bird-clone', 'tkmarsh/SmartRC', 'Stewart86/roadtaxTracker', 'ThymonA/esx_vehicleshop', 'Pranjal2041/SafeDrive', 'nadalmateus/good-practices-and-clean-code-2', 'karimcambridge/samp-vehiclemodeldata', 'zkhan011/fmssrc', 'milliarac/Milli-Elektrikli-Otomobil', 'scps950707/Multi-camera-Vehicle-Tracking-System', 'billinghamj/vrm-node', 'lgsvl/lgsvl_msgs', 'lvyv/iovBOX', 'howroyd/ELEVATE', 'openpilot-community/documentation', 'earthat/VANET-Simulation-in-MATLAB', 'star-wars-vehicles/star-wars-vehicles-redux', 'jundet/open-vehicle-reid', 'Rubi-Tomeu/Path-Flyer', 'fo2rist/garmin-vehicle-keyfob', 'TheCrankLarson/SRVTracker', 'ColumbiaRobotics/licenseplatedetect', 'SeaSweepersROV/SeaSweepers2017', 'tbattz/openGLMap', 'Tepic/Vehicle_Model', 'makuto/spargus-vehicle-prototype', 'blockchained-mobility-hack/meshup', 'amilovanoff/est_milovanoff_et_al_2019', 'iwishiwasaneagle/proportional_navigation', 'Project-Hatchet/Interaction-Framework', 'random-robbie/mot-checker', 'jeffersonmourak/carnet', 'assyrianic/-TF2-Mechanized-Mercs', 'jackyhuynh/Kalman_Filter_for_Localization', 'Dheeraj1998/Accident-Detection-using-VANETs', 'Defeator2020/ROV', 'awwad/uptane', 'Psingh12354/ARDUINO_OBSTACLE_AVOIDING_CAR', 'ptariche/lookup_vehicle', 'CompteCO2/Carbon-Weight', 'abhishekpatel946/Smart-Vehicle-Fleet-Manager', 'iCVTEAM/HRCN', 'yihui-he/Vehicle-Traffic-Driven-Camera-Placement', 'GioSunrider/OmniRobot', 'prateeks97/ADAS_Algorithms_on_F1_10th', 'Desour/helicopter', 'mammutgroup/Plate', 'avik1990/CarMovement_Bearing', 'accurrently/evfs-lite', 't2nerb/OBD_buddy', 'andychen166/trajectory-data-and-video', 'louis123456/OpenParkingManager', 'DenisCobeti/Mogen', 'vilhelmprytz/miljomataren', 'marcosvppfernandes/chicagoteam_quanggang', 'Rynaro/FipExtractor', 'tapickell/nerves-dashboard', 'barry-ha/Griduino', 'CodeTanzania/ewea-dispatch', 'carmelosantana/sendadf', 'deal-makers/laravel8-vue-vehicle-back-end', 'Ryder17z/CustomVehicleDamage', 'earthat/ROI-marking-for-traffic-surveillance-', 'bobolee1239/mobileRobot', 'onecarpayment/KARtoken', 'asvol/mavlink.net', 'Vieper1/VehicleNN2', 'LucyAV/ORBSLAM2', 'esuau/ladn', 'mh-rafi/vrp-solver', 'tylertaewook/project-orbitron', 'Sebulec/SwiftGeneticCars', 'OSkrk/Electric-vehicles-EV-Database', 'henjin0/Kari-Kuruma', 'TheIoTLearningInitiative/bitol', 'spider-tronix/shadow-bot', 'abhijeet2096/the_stupid_bot', 'codekeyz/gh-fleet-server', 'William-Wu56/UnscentedKF', 'tscholze/java-android-things-tobot', 'marcauberer/vehicle-safe', 'majabojarska/tadpole', '14BME0133/MEE218', 'leehomeok/vehicle-keyboard-react', 'hx19940102/Vehicle_License_Plate_Recognition', 'moorepants/eme134', 'sidswork/tco-calculator', 'roman5566/vehicles', 'kputtur/KiranP-Vehicle-Detection', 'NamChain-Open-Initiative-Research-Lab/VahaNamChain-PoC', 'SarpGokdag/Autonomous-Drive-Swift-Playground', 'RTOS-Team-2/htcs', 'PoojyaSree/Automatic-Street-Lights', 'amamenko/electric-bill-calculator', 'AbeRodz/ADAS-system', 'studian/SDC_HW03_Behavioral-Cloning', 'oRiamn/blockchain-car', '4hwc/4HWCAutonomousCar', 'horverno/deep-pilot', 'Desour/mvehicles', 'pranjalsharma26/Security-surveillance-system', 'lucifernob/helmet-for-life', 'CyoSeKyo/Mitacs-Internship', 'cchighman/ImageAI-YOLOv3-Fine-Tuning-Vehicle-Classification', 'laszlolukacs/roadrolla-gl', 'PilotAutomotiveLabs/woodpecker', 'Mark-MacLellan/Dynamic-Traffic-Simulator', 'AdityaKshettri/Web_Controlled_Vehicular_System', 'tamara-schmitz/leJOS_NXT_programs', 'thirteendollars/CameraCarVR', 'yashjshah/GSW', 'nisiddharth/MNNIT-Central', 'EricHier/vehikeling', 'carlosplazaaguilera/Traccar2Kml', 'Praveennaik8/DBMS-P-four-Logistics', 'studian/SDC_HW03_Behavioral-Cloning-Org', 'TusharChugh/CarND-Behavioral-Cloning-P3', 'ChristianJavierMelo/Vehicle-Type-Recognition', 'daino92/Mechatronic-Car', 'hzhniu/hello-world', 'ACMEBLOOP/pv-services-telematics-consistency', 'ACMEBLOOP/pv-services-telematics', 'ACMEBLOOP/pv-common-vehicle', 'cain/vehicle-dimensions-spa', 'thirteendollars/Dr.Dampp', 'MPete27/Carla-Vehicle-Simulator', 'annubv/majorproject', 'rdeepak2002/FordConnected', 'HackerGens/SpeedoMeter', 'Anders-Lund/Autonomous-System-2017---Group---1', 'Andres6936/N7-VehicleSales-Java', 'Andres6936/N7-VentaVehiculos', 'dineshresearch/NEXGENEV', 'ericsandbling/ModularLandVehicle', 'cnopt/vehicle-simulator', 'scsinke/jlr-swift', 'Kush-Sh/2D-Feature-Tracking', 'rodrigo-dalmas/swapi-helper', 'manncyam/CarND-Vehicle-Detection', 'VictorLoy/TheMKNYProblem-AI-', 'mcgratheg/trailer-driving', 'bvujovic/Vehicle2', 'himloul/Driver-Behavior-Cluster', 'ACMEBLOOP/pv-services-telematics-mail', 'sonianuj287/NITC-Automatic-Number-Plate-Recognition-with-Raspberry-Pi', 'szenergy/szenergy-utility-programs', 'gaelfoppolo/locomotor', 'hashtag32/Behavioral-Cloning', 'souravsk/luxuryvehicle', 'akulagrawal/Mobile-Printer', 'ksporwal/finder', 'zxxml/Butterfly', 'ACMEBLOOP/pv-services-vehicle-jms', 'ACMEBLOOP/pv-services-vehiclecontractsummary', 'CrashOverrideProductions/ALDL-Adapter', 'dynamiccookies/vin-decoder', 'EOussama/GTA-SA-Vehicle-List', 'InCar/rooster-mr', 'jakkso/vehicular', 'hunterqueb/ROME-DEFUNKT', 'Akrion/tesla-owners-api', 'ASommer/brm-react', 'ACMEBLOOP/ws-vehicle', 'ACMEBLOOP/pv-services-vehicle', 'jacksoncook/mlAnalysis', 'BjAlvestad/BO19E-15_SensorVehicle', 'prashant0448/vehicle-manager', 'Robozor-network/DART01B', 'wujingwei1995gmail/simulation-model-of-P2-Structure-hybrid-electric-vehicle-model-based-on-Simulink', 'haradama/goarxml', 'MausCD/mcd_vehiclerollover', 'KyleDennison/Java-Electric-Vehicle-Project', 'brown9804/CU_Veh_Lev_Mag', 'shekhardesigner/vehicleparking', 'bvujovic/SteeringWheel', 'Antares-Network/Vehicle-Tracking-Using-OpenCV-and-VOLOv5', 'Lachee/fivem-garage', 'nisargptl/vehicle-recognition', 'InCar/rooster-pp', 'Roboskop/droid', 'alfonsojimenez/mercedes', 'Valentinles/Vehicle-Portal', 'ACMEBLOOP/vehicle-common-vehicle-presentation', 'InvincibleJuggernaut/SysHax', 'AnandP2812/Vehicle-Inventory-System', 'EcoTech-Team/Telemetry', 'aravindg250/ElectroCalc', 'isaqueks/fiplaca', 'florianuhlemann/EVSE', 'marcbenedi/HackUPC17W', 'moorepants/bmdconf', 'thebeyondr/fms-ui', 'AaronSadlerUK/DVLA.VEHICLE.ENQUIRY.SDK', 'ColdFusionX/PollutionMonitor', 'Vishal1297/vehicle-manager', 'paulnelsontx/VehicleIdentificationNumber', 'MausCD/mcd_vehiclerollover', 'hongttran/ride-budget', 'TheWreckingCrewUK/Training', 'William-Wu56/ExtendedKF', 'MarkKoz/gta-handling', 'LambdaGaming/Automod', 'senihcerit/car-manufacturing-algorithms', 'SSN15/Behavioral-Cloning--Implementaion-of-Autonomous-car-using-deep-learning', 'ultron-systems/vehicle-data-api', 'ErenYalcn/sattimcom', 'shreyanshmohnot/VehicleSearch', 'bnordland/Gesture-V', 'ex-punctis/car-colours', 'SherifFuang/CarLane-Detection-UDacity', 'm090009/Vehicle_Detection', 'ACMEBLOOP/pv-services-telematics-jpa', 'abhishekpaul11/Distress-Alert-System', 'mathisvickie/pd2-avx', 'mertereker/CTIS221-Java-Group-Term-Project', 'metalneo-glitch/ChargeController_Simple', 'moosemaniam/vehicle_detection', 'JeffreyHyer/edmunds', 'Gokulsrinivas98/License-Plate-detector', 'tfelsky/openbazaar.com', 'amckee/Maxine', 'ZackXevious/TransformersArena-FANGAME', 'anggrypanda/unity-truck-game', 'Kampfhoernchen/Payday2-Retexture-Pack', 'openpilot-community/documentation-site', 'asvol/mavshell.net', 'Sagittarii/EVCharge', 'ACMEBLOOP/selenium-noa', 'Kavitha-Kothandaraman/Classifying-Silhouettes-of-vehicles-Unsupervised-learning', 'luisyuburi/samp-vehicle-quote']</t>
-  </si>
-  <si>
-    <t>['adrenak/tork', 'Nition/UnitySkidmarks', 'codinanon/Unity3D-Cars', 'fazil47/ShowroomAR', 'tetreum/peque-traffic', 'shreyaspj20/Autonomous-Driving-Car-simulation-using-Pytorch', 'ericblade/genivi-vehicle-simulator']</t>
-  </si>
-  <si>
-    <t>['pageauc/speed-camera', 'guptavasu1213/Yolo-Vehicle-Counter', 'shchers/ecu-simulator', 'PowerBroker2/WarThunder', 'JRCSTU/wltp', 'zekeriyyaa/Traffic-Data-Analysis-with-Apache-Spark-Based-on-Mobile-Robot-Data', 'khaledghobashy/uraeus_fsae', 'prithvisekhar/VehicalDiagnosticAlgo', 'zhyongquan/Automotive-Software-Blog', 'chenyuhua321/crawlingVehicles', 'lepola/ardupilotmultiplevehicles', 'lepola/ardupilotmultiplevehicles', 'ferhatmetin34/Number-of-Vehicles-Prediction-in-Besiktas-Using-Neural-Networks', 'fortebit/Polaris_OBD2_Monitor', 'kochlisGit/autonomous-vehicles-deep-reinforcement-learning', 'YichengShen/CarML-Simulator', 'kamranhasan/License-Plate-Detection-and-Recognition-with-Servo-Motor-Control-through-Raspberry-pi', 'ldti/Renault-Zoe-API-Prtg', 'jakka351/can0swc', 'antoniopgs/car_service', 'manavkataria/CarND-Vehicle-Detection', 'NityanDesai/ITMVU-Bus-Tracking', '154386670/VG710-Python-Templates', 'nithin-nkr/License-Plate-detection', 'Pushker-stark/Vehicle-Number-Plate-Recognition', 'richardARPANET/traffic-congestion-monitor', 'vyahello/fake-vehicles-api', 'bballamudi/vibration_toolbox', 'joaogsleite/vehicular-networks', 'CarlosChicata/TeReal', 'davidawad/Vehicle-Detection', 'Ferretelic/VehicleClassifierAdvanced', 'KapitanKabzon/EiT_Metal', 'davidawad/Vehicle-Detection', 'michaelbryantds/accident-severity', 'idaljeetsingh/MPVehicleSearchAPI']</t>
-  </si>
-  <si>
-    <t>[('car', 66), ('vehicle', 66), ('c-plus-plus', 4), ('obd2', 4), ('python', 4), ('react', 4), ('game', 3), ('can', 3), ('arduino', 3), ('nodejs', 3), ('android', 3), ('vehicle-detection', 3), ('dashboard', 3), ('darknet', 3), ('truck', 3)]</t>
-  </si>
-  <si>
-    <t>[('vehicle', 299), ('simulation', 13), ('machinelearning', 13), ('java', 12), ('javascript', 12), ('arduino', 12), ('android', 11), ('automation', 11), ('api', 10), ('open-source', 10), ('deep-learning', 9), ('detection', 9), ('simulator', 9), ('data', 9), ('neural', 8)]</t>
-  </si>
-  <si>
-    <t>[('unity3d', 7), ('vehicle', 7), ('unity', 3), ('physics', 2), ('unity-3d', 2), ('car', 2), ('raycast', 1), ('friction', 1), ('c-sharp', 1), ('effects', 1), ('driving', 1), ('unity-scripts', 1), ('fx', 1), ('vehicles', 1), ('code', 1)]</t>
-  </si>
-  <si>
-    <t>[('python', 40), ('vehicle', 36), ('machinelearning', 6), ('open-source', 5), ('detection', 5), ('traffic', 4), ('api', 4), ('note', 4), ('web', 3), ('deep-learning', 3), ('plate-recognition', 3), ('vehicle-detection', 2), ('simulator', 2), ('can', 2), ('can-bus', 2)]</t>
+    <t>['fr3ts0n/AndrOBD', 'pageauc/speed-camera', 'Seeed-Studio/Seeed_Arduino_CAN', 'parkingwang/vehicle-keyboard-android', 'cedricp/ddt4all', 'stuntrally/stuntrally', 'layumi/AICIty-reID-2020', 'rnd-ash/OpenVehicleDiag', 'atiksoftware/pubg_mobile_memory_hacking_examples', 'rohanchandra30/Spectral-Trajectory-and-Behavior-Prediction', 'adrenak/tork', 'layumi/Vehicle_reID-Collection', 'limiter121/esp32-obd2-emulator', 'meshula/OpenSteer', 'CaptainEven/RepNet-MDNet-VehicleReID', 'smartdevicelink/sdl_core', 'Nition/UnitySkidmarks', 'PowerBroker2/ELMduino', 'leggedrobotics/se2_navigation', 'bimmerconnected/bimmer_connected', 'eric612/Vehicle-Detection', 'pratik-123/GoogleMap', 'PushkinStudio/PsRealVehicle', 'Jakel21/vehicle-ReID-baseline', 'blockchain-IoT/Motoro', 'bismex/Awesome-vehicle-re-identification', 'jfrux/workbench', 'kmalinich/node-bmw-client', 'TridentMC/DavincisVessels', 'fjp/frenet', 'atulkunal999/pubg_mobile_memory_hacking', 'lxc86739795/human_vehicle_parsing_platform', 'hjptriplebee/car_detection_counting', 'thomasesmith/vw-car-net-api', 'codinanon/Unity3D-Cars', 'BravoLu/open-VehicleReID', 'guptavasu1213/Yolo-Vehicle-Counter', 'relish-wang/VehicleEditText', 'ManiAm/VENTOS_Public', 'jasur-2902/CarRecognition', 'Ekim-Yurtsever/DeepTL-Lane-Change-Classification', 'saildot4k/MSS54-XDFs', 'Udayraj123/VehicleInfoOCR', 'tetreum/carmechanic', 'lxc86739795/vehicle_reid_by_parsing', 'MOBATSim/MOBATSim', 'DurgNomis-drol/ha_toyota', 'filippofilip95/car-logos-dataset', 'Tobalation/GDCustomRaycastVehicle', 'skarapost/EVLib', 'TractorHacking/TractorHacking.github.io', 'q39JzrRa/GM-Vehicle-API', 'shahshubh/CampusCar', 'MCarlomagno/CarDrivingResNet', 'osu-uwrt/riptide_setup', 'evanshortiss/obd-parser', 'shchers/ecu-simulator', 'JRCSTU/CO2MPAS-TA', 'jhermsmeier/node-vehicle-identification-number', 'adessoAG/anki-drive-java', 'ShisatoYano/JuliaAutonomy', 'emaraschio/swapi-ruby', 'prasad-kumkar/ai-driver-safety', 'rnd-ash/m2-utd-passthru', 'Mikusch/source-vehicles', 'evanshortiss/obd-parser-cli', 'bmellink/GPS_Tracker_Server', 'ozcanovunc/Driver-Assistant', 'SOLOPlugins-PocketMine/HotAirBalloon', 'SamadiPour/IranVehicleNumberPlates', 'DispatchSystems/DispatchSystem', 'Basssiiie/OpenRCT2-RideVehicleEditor', 'dotSILENT/chandling', 'PowerBroker2/WarThunder', 'shnewto/can-we-talk', 'stephengold/jme-vehicles', 'jackm/carhack', 'Derekabc/NGSIM_DATA_PROCESSING', 'Rbn3D/CustomCameraVPlus', 'yy0yaolinjun1/vehicle_monitoring_tensorflow', 'matthewfortier/Digital-Dashboard', 'fochica/fochica-arduino', 'dominikwinter/mobile-scraper', 'sunshine-tech/BienSoXe', 'JRCSTU/wltp', 'arjun921/Google-Maps-Animated-Marker', 'nirbhayph/VAMRR-Vehicle-Detection', 'opensensorhub/osh-addons', 'fazil47/ShowroomAR', 'dotSILENT/chandling-svr', 'SumanSudhir/Vehicle-and-Its-License-Plate-detection', 'vzakharchenko/remote-ctrl-gsm', 'jdinovo/CarServiceManagementSystem', 'dabo248/nedc', 'fadidevv/react-bird-clone', 'tkmarsh/SmartRC', 'ThymonA/esx_vehicleshop', 'Pranjal2041/SafeDrive', 'tramyardg/autoexpress', 'nadalmateus/good-practices-and-clean-code-2', 'khaledghobashy/uraeus_fsae', 'zkhan011/fmssrc', 'scps950707/Multi-camera-Vehicle-Tracking-System', 'billinghamj/vrm-node', 'lgsvl/lgsvl_msgs', 'lvyv/iovBOX', 'howroyd/ELEVATE', 'openpilot-community/documentation', 'earthat/VANET-Simulation-in-MATLAB', 'star-wars-vehicles/star-wars-vehicles-redux', 'jundet/open-vehicle-reid', 'Rubi-Tomeu/Path-Flyer', 'mvargas33/Eolian-Telemetria-Auriga', 'prithvisekhar/VehicalDiagnosticAlgo', 'ColumbiaRobotics/licenseplatedetect', 'kami-nashi/DSMPi', 'viral32111/car-keys', 'tetreum/peque-traffic', 'SeaSweepersROV/SeaSweepers2017', 'openpilot-community/opc-web', 'duraki/jeep', 'rhelmke/cant', 'tbattz/openGLMap', 'Tepic/Vehicle_Model', 'makuto/spargus-vehicle-prototype', 'blockchained-mobility-hack/meshup', 'PyMyFord/prefect', 'iwishiwasaneagle/proportional_navigation', 'APCVSRepo/sdl_implementation_reference', 'xXNurioXx/gta-sa-self-driving-car', 'pburggraf/LicensePlate', 'random-robbie/mot-checker', 'jeffersonmourak/carnet', 'assyrianic/-TF2-Mechanized-Mercs', 'lepola/ardupilotmultiplevehicles', 'jackyhuynh/Kalman_Filter_for_Localization', 'lepola/ardupilotmultiplevehicles', 'Dheeraj1998/Accident-Detection-using-VANETs', 'Defeator2020/ROV', 'awwad/uptane', 'Psingh12354/ARDUINO_OBSTACLE_AVOIDING_CAR', 'ferhatmetin34/Number-of-Vehicles-Prediction-in-Besiktas-Using-Neural-Networks', 'ptariche/lookup_vehicle', 'abhishekpatel946/Smart-Vehicle-Fleet-Manager', 'GioSunrider/OmniRobot', 'prateeks97/ADAS_Algorithms_on_F1_10th', 'fortebit/Polaris_OBD2_Monitor', 'kochlisGit/autonomous-vehicles-deep-reinforcement-learning', 'mammutgroup/Plate', 'avik1990/CarMovement_Bearing', 'accurrently/evfs-lite', 'andychen166/trajectory-data-and-video', 'louis123456/OpenParkingManager', 'DenisCobeti/Mogen', 'vilhelmprytz/miljomataren', 'rhelmke/cant-ui', 'DhirenSc/VAMRR-Vehicle-Detection', 'marcosvppfernandes/chicagoteam_quanggang', 'Rynaro/FipExtractor', 'tapickell/nerves-dashboard', 'barry-ha/Griduino', 'CodeTanzania/ewea-dispatch', 'carmelosantana/sendadf', 'earthat/ROI-marking-for-traffic-surveillance-', 'bobolee1239/mobileRobot', 'onecarpayment/KARtoken', 'asvol/mavlink.net', 'Vieper1/VehicleNN2', 'LucyAV/ORBSLAM2', 'kamranhasan/License-Plate-Detection-and-Recognition-with-Servo-Motor-Control-through-Raspberry-pi', 'mh-rafi/vrp-solver', 'tylertaewook/project-orbitron', 'Sebulec/SwiftGeneticCars', '025PRO/VehicleYearMakeModelDB', 'OSkrk/Electric-vehicles-EV-Database', 'henjin0/Kari-Kuruma', 'camrymps/toyota-client', 'TheIoTLearningInitiative/bitol', 'spider-tronix/shadow-bot', 'BattlefieldDuck/TF2_DrivableVehicles', 'codekeyz/gh-fleet-server', 'CREESTL/CarCounter', 'William-Wu56/UnscentedKF', 'marcauberer/vehicle-safe', 'majabojarska/tadpole', 'leehomeok/vehicle-keyboard-react', 'moorepants/eme134', 'ldti/Renault-Zoe-API-Prtg', 'sidswork/tco-calculator', 'jakka351/can0swc', 'roman5566/vehicles', 'kputtur/KiranP-Vehicle-Detection', 'NamChain-Open-Initiative-Research-Lab/VahaNamChain-PoC', 'fernaper/tfm-artificial-vision', 'SarpGokdag/Autonomous-Drive-Swift-Playground', 'dcrblack/Kingdomhire-2.0', 'RTOS-Team-2/htcs', 'PoojyaSree/Automatic-Street-Lights', 'amamenko/electric-bill-calculator', 'AbeRodz/ADAS-system', 'studian/SDC_HW03_Behavioral-Cloning', 'oRiamn/blockchain-car', '4hwc/4HWCAutonomousCar', 'horverno/deep-pilot', 'Desour/mvehicles', 'KhalidKhaskia/FLIVA', 'pranjalsharma26/Security-surveillance-system', 'lucifernob/helmet-for-life', 'swhan0329/license_plate_de-identification', 'CyoSeKyo/Mitacs-Internship', 'manavkataria/CarND-Vehicle-Detection', 'haradama/ofxAutomobile', 'cchighman/ImageAI-YOLOv3-Fine-Tuning-Vehicle-Classification', 'gmm96/GTA-Vice-City-CAR-INFO', 'shreyaspj20/Autonomous-Driving-Car-simulation-using-Pytorch', 'laszlolukacs/roadrolla-gl', 'PilotAutomotiveLabs/woodpecker', 'AdityaKshettri/Web_Controlled_Vehicular_System', 'NityanDesai/ITMVU-Bus-Tracking', 'tamara-schmitz/leJOS_NXT_programs', 'thirteendollars/CameraCarVR', 'yashjshah/GSW', 'nisiddharth/MNNIT-Central', '154386670/VG710-Python-Templates', 'carlosplazaaguilera/Traccar2Kml', 'nithin-nkr/License-Plate-detection', 'pinglis/carphysics2d_onamap', 'jankubatt/Vehicle-Maintenance', 'studian/SDC_HW03_Behavioral-Cloning-Org', 'TusharChugh/CarND-Behavioral-Cloning-P3', 'javoplus/Fivem-SpawnVehicle_V1', 'Pushker-stark/Vehicle-Number-Plate-Recognition', 'azzaouiyazid/Car-Truck-Vehicle-class-.', 'daino92/Mechatronic-Car', 'electricduck/clunkerbot', 'hzhniu/hello-world', 'ACMEBLOOP/pv-common-vehicle', 'richardARPANET/traffic-congestion-monitor', 'thirteendollars/Dr.Dampp', 'ericblade/genivi-vehicle-simulator', 'MPete27/Carla-Vehicle-Simulator', 'annubv/majorproject', 'vyahello/fake-vehicles-api', 'rdeepak2002/FordConnected', 'HackerGens/SpeedoMeter', 'Anders-Lund/Autonomous-System-2017---Group---1', 'dineshresearch/NEXGENEV', 'cnopt/vehicle-simulator', 'scsinke/jlr-swift', 'Kush-Sh/2D-Feature-Tracking', 'rodrigo-dalmas/swapi-helper', 'manncyam/CarND-Vehicle-Detection', 'VictorLoy/TheMKNYProblem-AI-', 'mcgratheg/trailer-driving', 'bvujovic/Vehicle2', 'himloul/Driver-Behavior-Cluster', 'sonianuj287/NITC-Automatic-Number-Plate-Recognition-with-Raspberry-Pi', 'szenergy/szenergy-utility-programs', 'hashtag32/Behavioral-Cloning', 'souravsk/luxuryvehicle', 'akulagrawal/Mobile-Printer', 'ksporwal/finder', 'zxxml/Butterfly', 'CrashOverrideProductions/ALDL-Adapter', 'dynamiccookies/vin-decoder', 'joaogsleite/vehicular-networks', 'EOussama/GTA-SA-Vehicle-List', 'hunterqueb/ROME-DEFUNKT', 'naorbakal/Garage', 'ASommer/brm-react', 'simpleverso/contadorDeVehiculos', 'onecarpayment/KARchain', 'BjAlvestad/BO19E-15_SensorVehicle', 'wujingwei1995gmail/simulation-model-of-P2-Structure-hybrid-electric-vehicle-model-based-on-Simulink', 'MausCD/mcd_vehiclerollover', 'davidawad/Vehicle-Detection', 'KyleDennison/Java-Electric-Vehicle-Project', 'brown9804/CU_Veh_Lev_Mag', 'Ferretelic/VehicleClassifierAdvanced', 'shekhardesigner/vehicleparking', 'bvujovic/SteeringWheel', 'Antares-Network/Vehicle-Tracking-Using-OpenCV-and-VOLOv5', 'Lachee/fivem-garage', 'nisargptl/vehicle-recognition', 'InCar/rooster-pp', 'Roboskop/droid', 'alfonsojimenez/mercedes', 'Valentinles/Vehicle-Portal', 'SebRol/car-performance', 'ACMEBLOOP/vehicle-common-vehicle-presentation', 'InvincibleJuggernaut/SysHax', 'AnandP2812/Vehicle-Inventory-System', 'EcoTech-Team/Telemetry', 'aravindg250/ElectroCalc', 'isaqueks/fiplaca', 'florianuhlemann/EVSE', 'marcbenedi/HackUPC17W', 'moorepants/bmdconf', 'thebeyondr/fms-ui', 'KapitanKabzon/EiT_Metal', 'G0uth4m/State-Design-Pattern', 'fmatsos/monitocar', 'StingrayCZ/Airport-Ground-Support-Vehicle', 'Vishal1297/vehicle-manager', 'paulnelsontx/VehicleIdentificationNumber', 'MausCD/mcd_vehiclerollover', 'PVineeth/minix_car_firmware', 'hongttran/ride-budget', 'davidawad/Vehicle-Detection', 'William-Wu56/ExtendedKF', 'MarkKoz/gta-handling', 'LambdaGaming/Automod', 'senihcerit/car-manufacturing-algorithms', 'SSN15/Behavioral-Cloning--Implementaion-of-Autonomous-car-using-deep-learning', 'ultron-systems/vehicle-data-api', 'contributeless/car-selector', 'michaelbryantds/accident-severity', 'bnordland/Gesture-V', 'ex-punctis/car-colours', 'm090009/Vehicle_Detection', 'abhishekpaul11/Distress-Alert-System', 'mathisvickie/pd2-avx', 'YouCodeSchool/DriveNow', 'metalneo-glitch/ChargeController_Simple', 'moosemaniam/vehicle_detection', 'JeffreyHyer/edmunds', 'Gokulsrinivas98/License-Plate-detector', 'idaljeetsingh/MPVehicleSearchAPI', 'hurtadosanti/BehavioralCloning', 'KhomsiAdam/DriveNow', 'pawlidim/jVinDecoder', 'evenator/CarND-Vehicle-Detection', 'amckee/Maxine', 'anggrypanda/unity-truck-game', 'yujinakayama/ipad-car-integration', 'PVineeth/minix_car_control_app', 'Kampfhoernchen/Payday2-Retexture-Pack', 'openpilot-community/documentation-site', 'asvol/mavshell.net', 'Sagittarii/EVCharge', 'ACMEBLOOP/selenium-noa', 'filipnet/car-entertainment-system', 'luisyuburi/samp-vehicle-quote']</t>
+  </si>
+  <si>
+    <t>['LonglongaaaGo/CCML_Learning', 'msp1974/homeassistant-jlrincontrol', 'opencars/vin-decoder-api', 'dongfang-steven-yang/vpi-crossing', 'guannan-he/pathPlanningPaperAndCodes', 'Stewart86/roadtaxTracker', 'karimcambridge/samp-vehiclemodeldata', 'milliarac/Milli-Elektrikli-Otomobil', 'fo2rist/garmin-vehicle-keyfob', 'TheCrankLarson/SRVTracker', 'amilovanoff/est_milovanoff_et_al_2019', 'Project-Hatchet/Interaction-Framework', 'CompteCO2/Carbon-Weight', 'iCVTEAM/HRCN', 'yihui-he/Vehicle-Traffic-Driven-Camera-Placement', 'Desour/helicopter', 't2nerb/OBD_buddy', 'deal-makers/laravel8-vue-vehicle-back-end', 'Ryder17z/CustomVehicleDamage', 'esuau/ladn', 'abhijeet2096/the_stupid_bot', 'tscholze/java-android-things-tobot', '14BME0133/MEE218', 'hx19940102/Vehicle_License_Plate_Recognition', 'Mark-MacLellan/Dynamic-Traffic-Simulator', 'EricHier/vehikeling', 'Praveennaik8/DBMS-P-four-Logistics', 'ChristianJavierMelo/Vehicle-Type-Recognition', 'cain/vehicle-dimensions-spa', 'Andres6936/N7-VehicleSales-Java', 'Andres6936/N7-VentaVehiculos', 'ericsandbling/ModularLandVehicle', 'gaelfoppolo/locomotor', 'InCar/rooster-mr', 'jakkso/vehicular', 'Akrion/tesla-owners-api', 'ACMEBLOOP/ws-vehicle', 'jacksoncook/mlAnalysis', 'prashant0448/vehicle-manager', 'Robozor-network/DART01B', 'haradama/goarxml', 'AaronSadlerUK/DVLA.VEHICLE.ENQUIRY.SDK', 'ColdFusionX/PollutionMonitor', 'TheWreckingCrewUK/Training', 'ErenYalcn/sattimcom', 'shreyanshmohnot/VehicleSearch', 'SherifFuang/CarLane-Detection-UDacity', 'mertereker/CTIS221-Java-Group-Term-Project', 'tfelsky/openbazaar.com', 'ZackXevious/TransformersArena-FANGAME', 'Kavitha-Kothandaraman/Classifying-Silhouettes-of-vehicles-Unsupervised-learning']</t>
+  </si>
+  <si>
+    <t>['zekeriyyaa/Traffic-Data-Analysis-with-Apache-Spark-Based-on-Mobile-Robot-Data', 'zhyongquan/Automotive-Software-Blog', 'chenyuhua321/crawlingVehicles', 'YichengShen/CarML-Simulator', 'antoniopgs/car_service', 'bballamudi/vibration_toolbox', 'CarlosChicata/TeReal']</t>
+  </si>
+  <si>
+    <t>['ACMEBLOOP/pv-services-telematics-consistency', 'ACMEBLOOP/pv-services-telematics', 'ACMEBLOOP/pv-services-telematics-mail', 'ACMEBLOOP/pv-services-vehicle-jms', 'ACMEBLOOP/pv-services-vehiclecontractsummary', 'ACMEBLOOP/pv-services-vehicle', 'ACMEBLOOP/pv-services-telematics-jpa']</t>
+  </si>
+  <si>
+    <t>[('vehicle', 343), ('car', 68), ('python', 40), ('open-source', 17), ('simulation', 17), ('machinelearning', 17), ('android', 16), ('detection', 16), ('arduino', 15), ('automation', 15), ('api', 15), ('java', 14), ('javascript', 14), ('deep-learning', 12), ('simulator', 12)]</t>
+  </si>
+  <si>
+    <t>[('vehicle', 51), ('machinelearning', 3), ('pawn', 2), ('arma3', 2), ('web', 2), ('vue', 2), ('sql', 2), ('data', 2), ('neural', 1), ('segmentation', 1), ('self-supervised-learning', 1), ('homeassistant', 1), ('hacs', 1), ('jaguar', 1), ('rrs', 1)]</t>
+  </si>
+  <si>
+    <t>[('python', 8), ('vehicle', 7), ('spark', 1), ('mongodb', 1), ('pyqt5', 1), ('vision', 1), ('data', 1), ('sql', 1), ('industrial-automation', 1), ('agv', 1), ('industrial-robot', 1), ('dataanalysis', 1), ('pyqt5-desktop-application', 1), ('particle-filter', 1), ('kalman-filter', 1)]</t>
+  </si>
+  <si>
+    <t>[('services', 7), ('vehicle', 7), ('non-life', 7), ('services-telematics-consistency', 1), ('services-telematics', 1), ('services-telematics-mail', 1), ('services-vehicle-jms', 1), ('pv-services-vehiclecontractsummary', 1), ('services-vehicle', 1), ('services-telematics-jpa', 1)]</t>
   </si>
 </sst>
 </file>
@@ -429,13 +429,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>66</v>
+        <v>343</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -443,13 +443,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3">
-        <v>299</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -471,13 +471,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
